--- a/biology/Médecine/Arcade_palmaire_superficielle/Arcade_palmaire_superficielle.xlsx
+++ b/biology/Médecine/Arcade_palmaire_superficielle/Arcade_palmaire_superficielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arcade palmaire superficielle (ou arcade palmaire cubitale) est un système artériel anastomosique de la paume de la main.
 </t>
@@ -511,15 +523,14 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arcade palmaire superficielle est formée principalement de l'artère ulnaire qui s'anastomose avec le rameau palmaire superficiel de l'artère radiale.
 L'arc passe à travers la paume dans une courbe convexe en bas en avant des tendons des muscles fléchisseurs superficiels des doigts.
 L'arcade palmaire superficielle est plus distale que l'arcade palmaire profonde et s'anastomosent entre elles.
 L'arcade palmaire superficielle donnent les quatre artères digitales palmaires communes qui descendent respectivement sur les deuxième, troisième et quatrième muscles lombricaux.
-Variations
-Chez certains individus, la contribution de l'artère radiale peut être absente et l'anastomose se réalise avec l'artère principale du pouce, l'artère radiale de l'index ou l'artère satellite du nerf médian.
-De même la répartition des artères digitales communes et de leurs artères collatérales est sujet à variation.
 </t>
         </is>
       </c>
@@ -545,10 +556,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez certains individus, la contribution de l'artère radiale peut être absente et l'anastomose se réalise avec l'artère principale du pouce, l'artère radiale de l'index ou l'artère satellite du nerf médian.
+De même la répartition des artères digitales communes et de leurs artères collatérales est sujet à variation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arcade_palmaire_superficielle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arcade_palmaire_superficielle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La connexion entre les arcades palmaires profonde et superficielle peut être testée à l'aide de la manœuvre d'Allen.
 </t>
